--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -58,22 +58,58 @@
     <t xml:space="preserve">Learning and Exploration</t>
   </si>
   <si>
+    <t xml:space="preserve">26/02/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/02/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on backend api for google analytic for GA4 to fetch the account and the relevent property for listing</t>
+  </si>
+  <si>
     <t xml:space="preserve">26/12/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">27/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on backend api for google analytic for GA4 to fetch the account and the relevent property for listing</t>
+    <t xml:space="preserve">01/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend for fetching properties based on selected account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend for fetching profile based on selected account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend for clearing properties based on previous selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on frontend for clearing profile based on previous selection</t>
   </si>
 </sst>
 </file>
@@ -188,13 +224,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="23.28"/>
@@ -237,7 +273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -253,13 +289,16 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
+      <c r="F2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -269,7 +308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -285,13 +324,16 @@
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="b">
+      <c r="F3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
@@ -317,51 +359,436 @@
       <c r="E4" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="F4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>13</v>
+      <c r="F7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:H1005" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:H1008" type="list">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="28">
   <si>
     <t xml:space="preserve">Project Name</t>
   </si>
@@ -58,10 +58,10 @@
     <t xml:space="preserve">Learning and Exploration</t>
   </si>
   <si>
-    <t xml:space="preserve">26/02/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/02/2024</t>
+    <t xml:space="preserve">26/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/03/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Team Meeting</t>
@@ -73,43 +73,37 @@
     <t xml:space="preserve">Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Worked on backend api for google analytic for GA4 to fetch the account and the relevent property for listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on frontend for fetching properties based on selected account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on frontend for fetching profile based on selected account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on frontend for clearing properties based on previous selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on frontend for clearing profile based on previous selection</t>
+    <t xml:space="preserve">Worked on funcnality for GA3 and GA4 with multiple account as per client requirement in backend and frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/04/2024</t>
   </si>
 </sst>
 </file>
@@ -194,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,6 +198,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="23.28"/>
@@ -343,7 +341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -360,19 +358,22 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,6 +405,9 @@
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -436,6 +440,9 @@
         <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -449,8 +456,8 @@
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>7</v>
@@ -460,14 +467,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -500,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,8 +561,8 @@
       <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>23</v>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>7</v>
@@ -562,18 +572,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,8 +666,8 @@
       <c r="C13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>26</v>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>7</v>
@@ -667,18 +677,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,8 +771,8 @@
       <c r="C16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>29</v>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>7</v>
@@ -772,18 +782,105 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>28</v>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
